--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/HVDangKyMoi.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/HVDangKyMoi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F235E406-BBB4-4745-A73C-C8B86EBAEC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B9A084-54A9-4172-A147-332AA0E6CA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91C3213B-5A2A-47EB-894D-C318A534CBFA}"/>
   </bookViews>
@@ -409,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -432,8 +432,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -456,16 +454,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -480,10 +470,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -804,7 +803,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,12 +811,12 @@
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="16" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="8" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" customWidth="1"/>
@@ -2091,98 +2090,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" ht="19.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:19" ht="19.5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="19.5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="18.75">
       <c r="A5" s="1"/>
@@ -2206,48 +2205,48 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" ht="20.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
     </row>
     <row r="7" spans="1:19" ht="19.5">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
     </row>
     <row r="8" spans="1:19" ht="18.75">
       <c r="A8" s="2"/>
@@ -2270,96 +2269,100 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:19" s="13" customFormat="1" ht="36" customHeight="1">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="36" customHeight="1">
+      <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18" t="s">
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="18"/>
+      <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" s="13" customFormat="1" ht="93.75">
-      <c r="A10" s="18"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="14" t="s">
+    <row r="10" spans="1:19" s="11" customFormat="1" ht="93.75">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="12" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="12" t="s">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="A1:I1"/>
@@ -2374,15 +2377,11 @@
     <mergeCell ref="A6:S6"/>
     <mergeCell ref="A7:S7"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
